--- a/93361-11/BTRAN Wafer Map 93361-11.xlsx
+++ b/93361-11/BTRAN Wafer Map 93361-11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idealpowerinc-my.sharepoint.com/personal/leonardo_viana_idealpower_com/Documents/Desktop/excel_replica/93361-11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcd1d2a289e3a233/Escritorio/Python/Ideal_Power_ideas/excel_replica-1/93361-11/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_FB9CC552500AEBB58A3A7B9438B85A15ADD0DB1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="0" windowWidth="9795" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wafer" sheetId="1" r:id="rId1"/>
@@ -1041,30 +1041,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
@@ -1077,20 +1074,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2759,39 +2759,39 @@
   </sheetPr>
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="O3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27:X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" customWidth="1"/>
-    <col min="12" max="13" width="2.7265625" customWidth="1"/>
-    <col min="14" max="14" width="6.81640625" customWidth="1"/>
-    <col min="17" max="17" width="8.81640625" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" customWidth="1"/>
-    <col min="24" max="24" width="8.81640625" customWidth="1"/>
-    <col min="25" max="25" width="6.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="12" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2814,7 +2814,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -2831,7 +2831,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -2852,7 +2852,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2864,12 +2864,12 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-    </row>
-    <row r="6" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6">
@@ -2893,30 +2893,30 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="2"/>
-      <c r="O6" s="71"/>
+      <c r="O6" s="70"/>
       <c r="P6" s="42"/>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="58" t="s">
+      <c r="R6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="58" t="s">
+      <c r="S6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="58" t="s">
+      <c r="T6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="V6" s="58" t="s">
+      <c r="V6" s="60" t="s">
         <v>15</v>
       </c>
       <c r="W6" s="42"/>
-      <c r="X6" s="67"/>
-    </row>
-    <row r="7" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X6" s="73"/>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
@@ -2940,18 +2940,18 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="2"/>
-      <c r="O7" s="66"/>
+      <c r="O7" s="57"/>
       <c r="P7" s="42"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
       <c r="W7" s="42"/>
-      <c r="X7" s="66"/>
-    </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X7" s="57"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="10">
@@ -2975,18 +2975,18 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="2"/>
-      <c r="O8" s="66"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="42"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
       <c r="W8" s="42"/>
-      <c r="X8" s="66"/>
-    </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X8" s="57"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <v>48.294403076199998</v>
@@ -3015,33 +3015,33 @@
       <c r="J9" s="5"/>
       <c r="K9" s="2"/>
       <c r="O9" s="42"/>
-      <c r="P9" s="61" t="s">
+      <c r="P9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="58" t="s">
+      <c r="R9" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="58" t="s">
+      <c r="S9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="58" t="s">
+      <c r="T9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="58" t="s">
+      <c r="U9" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="58" t="s">
+      <c r="V9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="W9" s="58" t="s">
+      <c r="W9" s="60" t="s">
         <v>29</v>
       </c>
       <c r="X9" s="42"/>
     </row>
-    <row r="10" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>29</v>
@@ -3070,17 +3070,17 @@
       <c r="J10" s="5"/>
       <c r="K10" s="2"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
       <c r="X10" s="42"/>
     </row>
-    <row r="11" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="8">
         <v>50.971889495799999</v>
@@ -3109,17 +3109,17 @@
       <c r="J11" s="5"/>
       <c r="K11" s="2"/>
       <c r="O11" s="42"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
       <c r="X11" s="42"/>
     </row>
-    <row r="12" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>47.829986572300001</v>
       </c>
@@ -3151,38 +3151,38 @@
         <v>55.963779449500002</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="58" t="s">
+      <c r="Q12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="58" t="s">
+      <c r="R12" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="58" t="s">
+      <c r="S12" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="58" t="s">
+      <c r="T12" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="58" t="s">
+      <c r="V12" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="W12" s="58" t="s">
+      <c r="W12" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="58" t="s">
+      <c r="X12" s="60" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -3214,18 +3214,18 @@
         <v>51</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-    </row>
-    <row r="14" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>51.683879852300002</v>
       </c>
@@ -3257,18 +3257,18 @@
         <v>45.436954498299997</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-    </row>
-    <row r="15" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43">
         <v>49.215148925800001</v>
       </c>
@@ -3299,43 +3299,43 @@
       <c r="J15" s="43">
         <v>17.182016372700001</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="58" t="s">
+      <c r="N15" s="76"/>
+      <c r="O15" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="58" t="s">
+      <c r="P15" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="58" t="s">
+      <c r="Q15" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="R15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="S15" s="58" t="s">
+      <c r="S15" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="T15" s="58" t="s">
+      <c r="T15" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="58" t="s">
+      <c r="U15" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="V15" s="58" t="s">
+      <c r="V15" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="58" t="s">
+      <c r="W15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="X15" s="58" t="s">
+      <c r="X15" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="Y15" s="64"/>
-    </row>
-    <row r="16" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y15" s="74"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -3366,21 +3366,21 @@
       <c r="J16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="62"/>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="59"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="59"/>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>53.280616760299999</v>
       </c>
@@ -3411,21 +3411,21 @@
       <c r="J17" s="8">
         <v>53.463245391800001</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="62"/>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="59"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="59"/>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>46.609901428199997</v>
       </c>
@@ -3456,41 +3456,41 @@
       <c r="J18" s="6">
         <v>54.362941741900002</v>
       </c>
-      <c r="K18" s="62"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="58" t="s">
+      <c r="K18" s="59"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="P18" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="Q18" s="58" t="s">
+      <c r="Q18" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="58" t="s">
+      <c r="R18" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="S18" s="58" t="s">
+      <c r="S18" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="58" t="s">
+      <c r="T18" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="U18" s="58" t="s">
+      <c r="U18" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="V18" s="58" t="s">
+      <c r="V18" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="W18" s="58" t="s">
+      <c r="W18" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="X18" s="58" t="s">
+      <c r="X18" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Y18" s="62"/>
-    </row>
-    <row r="19" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y18" s="59"/>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -3521,21 +3521,21 @@
       <c r="J19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="62"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="62"/>
-    </row>
-    <row r="20" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="59"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="59"/>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>51.739669799799998</v>
       </c>
@@ -3566,21 +3566,21 @@
       <c r="J20" s="10">
         <v>55.001354217500001</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="62"/>
-    </row>
-    <row r="21" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="59"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="59"/>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43.448280334499998</v>
       </c>
@@ -3611,41 +3611,41 @@
       <c r="J21" s="6">
         <v>56.885074615500002</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58" t="s">
+      <c r="K21" s="59"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="58" t="s">
+      <c r="P21" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="Q21" s="58" t="s">
+      <c r="Q21" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="R21" s="58" t="s">
+      <c r="R21" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="S21" s="58" t="s">
+      <c r="S21" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="T21" s="58" t="s">
+      <c r="T21" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="U21" s="58" t="s">
+      <c r="U21" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="58" t="s">
+      <c r="V21" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="W21" s="58" t="s">
+      <c r="W21" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="58" t="s">
+      <c r="X21" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Y21" s="62"/>
-    </row>
-    <row r="22" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y21" s="59"/>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -3676,21 +3676,21 @@
       <c r="J22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="K22" s="62"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="62"/>
-    </row>
-    <row r="23" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K22" s="59"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="59"/>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>49.678874969500001</v>
       </c>
@@ -3721,21 +3721,21 @@
       <c r="J23" s="8">
         <v>54.977298736599998</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="62"/>
-    </row>
-    <row r="24" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="59"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="59"/>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>20.526742935200001</v>
       </c>
@@ -3766,41 +3766,41 @@
       <c r="J24" s="6">
         <v>40.276123046899997</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58" t="s">
+      <c r="K24" s="59"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="58" t="s">
+      <c r="P24" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="Q24" s="58" t="s">
+      <c r="Q24" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="R24" s="58" t="s">
+      <c r="R24" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="S24" s="58" t="s">
+      <c r="S24" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="T24" s="58" t="s">
+      <c r="T24" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="U24" s="58" t="s">
+      <c r="U24" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="V24" s="58" t="s">
+      <c r="V24" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="W24" s="58" t="s">
+      <c r="W24" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="X24" s="58" t="s">
+      <c r="X24" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="Y24" s="62"/>
-    </row>
-    <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y24" s="59"/>
+    </row>
+    <row r="25" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -3831,21 +3831,21 @@
       <c r="J25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="62"/>
-    </row>
-    <row r="26" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="59"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="59"/>
+    </row>
+    <row r="26" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>48.323417663599997</v>
       </c>
@@ -3876,21 +3876,21 @@
       <c r="J26" s="8">
         <v>41.707992553700002</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="62"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K26" s="59"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="59"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>52.1803627014</v>
       </c>
@@ -3922,38 +3922,38 @@
         <v>53.073238372799999</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="O27" s="58" t="s">
+      <c r="O27" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="P27" s="58" t="s">
+      <c r="P27" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" s="58" t="s">
+      <c r="Q27" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="R27" s="58" t="s">
+      <c r="R27" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="58" t="s">
+      <c r="S27" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="T27" s="58" t="s">
+      <c r="T27" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="U27" s="58" t="s">
+      <c r="U27" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="V27" s="58" t="s">
+      <c r="V27" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="W27" s="58" t="s">
+      <c r="W27" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="X27" s="58" t="s">
+      <c r="X27" s="60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
@@ -3985,18 +3985,18 @@
         <v>97</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-    </row>
-    <row r="29" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+    </row>
+    <row r="29" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>46.519351959200002</v>
       </c>
@@ -4028,18 +4028,18 @@
         <v>13.739705085800001</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-    </row>
-    <row r="30" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+    </row>
+    <row r="30" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>52.747390747099999</v>
@@ -4068,33 +4068,33 @@
       <c r="J30" s="5"/>
       <c r="K30" s="2"/>
       <c r="O30" s="42"/>
-      <c r="P30" s="61" t="s">
+      <c r="P30" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="Q30" s="58" t="s">
+      <c r="Q30" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="R30" s="58" t="s">
+      <c r="R30" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="S30" s="58" t="s">
+      <c r="S30" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="T30" s="58" t="s">
+      <c r="T30" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="U30" s="58" t="s">
+      <c r="U30" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="V30" s="58" t="s">
+      <c r="V30" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="W30" s="58" t="s">
+      <c r="W30" s="60" t="s">
         <v>36</v>
       </c>
       <c r="X30" s="42"/>
     </row>
-    <row r="31" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>22</v>
@@ -4123,17 +4123,17 @@
       <c r="J31" s="5"/>
       <c r="K31" s="17"/>
       <c r="O31" s="42"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
       <c r="X31" s="42"/>
     </row>
-    <row r="32" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="10">
         <v>46.572994232200003</v>
@@ -4162,17 +4162,17 @@
       <c r="J32" s="5"/>
       <c r="K32" s="17"/>
       <c r="O32" s="42"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
       <c r="X32" s="42"/>
     </row>
-    <row r="33" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6">
@@ -4196,30 +4196,30 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="2"/>
-      <c r="O33" s="65"/>
+      <c r="O33" s="75"/>
       <c r="P33" s="42"/>
-      <c r="Q33" s="58" t="s">
+      <c r="Q33" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="R33" s="58" t="s">
+      <c r="R33" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="S33" s="58" t="s">
+      <c r="S33" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="T33" s="58" t="s">
+      <c r="T33" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="U33" s="58" t="s">
+      <c r="U33" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="V33" s="58" t="s">
+      <c r="V33" s="60" t="s">
         <v>51</v>
       </c>
       <c r="W33" s="42"/>
-      <c r="X33" s="77"/>
-    </row>
-    <row r="34" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X33" s="56"/>
+    </row>
+    <row r="34" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="7" t="s">
@@ -4243,18 +4243,18 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="2"/>
-      <c r="O34" s="66"/>
+      <c r="O34" s="57"/>
       <c r="P34" s="42"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
       <c r="W34" s="42"/>
-      <c r="X34" s="66"/>
-    </row>
-    <row r="35" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X34" s="57"/>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="10">
@@ -4278,18 +4278,18 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="2"/>
-      <c r="O35" s="66"/>
+      <c r="O35" s="57"/>
       <c r="P35" s="42"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
       <c r="W35" s="42"/>
-      <c r="X35" s="66"/>
-    </row>
-    <row r="36" spans="1:24" ht="14.15" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="X35" s="57"/>
+    </row>
+    <row r="36" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4301,12 +4301,12 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="R36" s="65"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -4318,14 +4318,14 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="R37" s="70" t="s">
+      <c r="R37" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-    </row>
-    <row r="38" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+    </row>
+    <row r="38" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f>"Yield (&gt; " &amp; $B$48 &amp; "V):"</f>
         <v>Yield (&gt; 45V):</v>
@@ -4342,12 +4342,12 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-    </row>
-    <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+    </row>
+    <row r="39" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>100</v>
       </c>
@@ -4370,13 +4370,13 @@
       <c r="J39" s="2"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="26" t="str">
         <f ca="1">ROUNDUP(I140,2)&amp;"%"</f>
-        <v>79.55%</v>
+        <v>79,55%</v>
       </c>
       <c r="C40" s="29">
         <f ca="1">ROUNDUP(STDEVA(G52:G139),1)</f>
@@ -4400,13 +4400,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B41" s="27" t="str">
         <f ca="1">ROUNDUP(J140,2)&amp;"%"</f>
-        <v>65.91%</v>
+        <v>65,91%</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="2"/>
@@ -4426,7 +4426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -4439,21 +4439,21 @@
       <c r="J42" s="2"/>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="68"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
+    <row r="43" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="67"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="2"/>
       <c r="O43" s="20"/>
       <c r="R43" s="20"/>
     </row>
-    <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4465,7 +4465,7 @@
       <c r="I44" s="17"/>
       <c r="R44" s="20"/>
     </row>
-    <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4477,7 +4477,7 @@
       <c r="I45" s="17"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4489,7 +4489,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4501,7 +4501,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>105</v>
       </c>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="D48" s="55"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>C2</f>
         <v>93361</v>
@@ -4581,7 +4581,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>2</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>3</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>5</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C57" s="21">
         <v>6</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>116</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>11</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C65" s="21">
         <v>14</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>15</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>16</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>17</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>18</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>19</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>20</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>21</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>22</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>23</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C75" s="21">
         <v>24</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>25</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>26</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>27</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>28</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>29</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>30</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>31</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>32</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>33</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C85" s="21">
         <v>34</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>35</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>36</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>37</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>38</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>39</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>40</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>41</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>42</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>43</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C95" s="21">
         <v>44</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>45</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>46</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>47</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>48</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>49</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>50</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>51</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="103" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>52</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="104" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>53</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="105" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C105" s="21">
         <v>54</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="106" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>55</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="107" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>56</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="108" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>57</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="109" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>58</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="110" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>59</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="111" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>60</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="112" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>61</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="113" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>62</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="114" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C114">
         <v>63</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="115" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C115" s="21">
         <v>64</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="116" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C116">
         <v>65</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" ref="J116:J147" ca="1" si="10">IF(AND(H116 = 1, I116 = 1),1,0)</f>
+        <f t="shared" ref="J116:J139" ca="1" si="10">IF(AND(H116 = 1, I116 = 1),1,0)</f>
         <v>0</v>
       </c>
       <c r="N116" s="41" t="str">
@@ -6499,7 +6499,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="117" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>66</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="118" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>67</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="119" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>68</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="120" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>69</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="121" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>70</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="122" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>71</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="123" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>72</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="124" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>73</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="125" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C125" s="21">
         <v>74</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="126" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>75</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="127" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>76</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="128" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>77</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="129" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>78</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="130" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>79</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>80</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="132" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>81</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="133" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C133" s="21">
         <v>82</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="134" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>83</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="135" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>84</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="136" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>85</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="137" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>86</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="138" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>87</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>UD</v>
       </c>
     </row>
-    <row r="139" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C139" s="21">
         <v>88</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="140" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H140" s="53">
         <f>SUM(H52:H139)*100/88</f>
         <v>81.818181818181813</v>
@@ -7188,6 +7188,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="N15:N26"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="Q15:Q17"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Y15:Y26"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="Q33:Q35"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="U27:U29"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="T33:T35"/>
+    <mergeCell ref="V33:V35"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="X15:X17"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="W27:W29"/>
+    <mergeCell ref="W24:W26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="W21:W23"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="R37:U38"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="U15:U17"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="V27:V29"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="S33:S35"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="U30:U32"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="V30:V32"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="X27:X29"/>
     <mergeCell ref="X33:X35"/>
     <mergeCell ref="K15:K26"/>
     <mergeCell ref="R9:R11"/>
@@ -7204,90 +7288,6 @@
     <mergeCell ref="S18:S20"/>
     <mergeCell ref="R24:R26"/>
     <mergeCell ref="V24:V26"/>
-    <mergeCell ref="X24:X26"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="V27:V29"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="S33:S35"/>
-    <mergeCell ref="U33:U35"/>
-    <mergeCell ref="U30:U32"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="R33:R35"/>
-    <mergeCell ref="T15:T17"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="R37:U38"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="U15:U17"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="V30:V32"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="W27:W29"/>
-    <mergeCell ref="W30:W32"/>
-    <mergeCell ref="W24:W26"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R15:R17"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="X15:X17"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="W21:W23"/>
-    <mergeCell ref="W9:W11"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Y15:Y26"/>
-    <mergeCell ref="T30:T32"/>
-    <mergeCell ref="O33:O35"/>
-    <mergeCell ref="Q33:Q35"/>
-    <mergeCell ref="S27:S29"/>
-    <mergeCell ref="U27:U29"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="T27:T29"/>
-    <mergeCell ref="T33:T35"/>
-    <mergeCell ref="V33:V35"/>
-    <mergeCell ref="X27:X29"/>
-    <mergeCell ref="N15:N26"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="Q15:Q17"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="O15:O17"/>
   </mergeCells>
   <conditionalFormatting sqref="B32:I32 C6:H6 B9:I9 A12:J12 A15:J15 A18:J18 A21:J21 A24:J24 A27:J27 B30:I30 C33:H33">
     <cfRule type="cellIs" dxfId="189" priority="235" operator="between">
